--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H630"/>
+  <dimension ref="A1:H641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18029,6 +18029,328 @@
         <v>355.4771428571428</v>
       </c>
       <c r="H630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>347.1378947368421</v>
+      </c>
+      <c r="C631" t="n">
+        <v>352.7966666666667</v>
+      </c>
+      <c r="D631" t="n">
+        <v>369.13</v>
+      </c>
+      <c r="E631" t="n">
+        <v>374.48</v>
+      </c>
+      <c r="F631" t="n">
+        <v>367.7288888888889</v>
+      </c>
+      <c r="G631" t="n">
+        <v>357.5585714285714</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>342.1015789473685</v>
+      </c>
+      <c r="C632" t="n">
+        <v>365.5933333333334</v>
+      </c>
+      <c r="D632" t="n">
+        <v>378.2104347826087</v>
+      </c>
+      <c r="E632" t="n">
+        <v>387.29</v>
+      </c>
+      <c r="F632" t="n">
+        <v>386.1111111111111</v>
+      </c>
+      <c r="G632" t="n">
+        <v>375.9242857142857</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>328.4094736842105</v>
+      </c>
+      <c r="C633" t="n">
+        <v>349.8866666666667</v>
+      </c>
+      <c r="D633" t="n">
+        <v>369.6847826086956</v>
+      </c>
+      <c r="E633" t="n">
+        <v>370.33</v>
+      </c>
+      <c r="F633" t="n">
+        <v>370.1722222222222</v>
+      </c>
+      <c r="G633" t="n">
+        <v>357.5014285714286</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>332.8947368421053</v>
+      </c>
+      <c r="C634" t="n">
+        <v>347.4166666666666</v>
+      </c>
+      <c r="D634" t="n">
+        <v>370.1065217391304</v>
+      </c>
+      <c r="E634" t="n">
+        <v>373.31</v>
+      </c>
+      <c r="F634" t="n">
+        <v>370.4955555555555</v>
+      </c>
+      <c r="G634" t="n">
+        <v>358.0342857142857</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>330.0836842105263</v>
+      </c>
+      <c r="C635" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="D635" t="n">
+        <v>366.9630434782609</v>
+      </c>
+      <c r="E635" t="n">
+        <v>375.2600000000001</v>
+      </c>
+      <c r="F635" t="n">
+        <v>363.5333333333333</v>
+      </c>
+      <c r="G635" t="n">
+        <v>352.7714285714285</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>327.2536842105263</v>
+      </c>
+      <c r="C636" t="n">
+        <v>339.5933333333334</v>
+      </c>
+      <c r="D636" t="n">
+        <v>368.8717391304348</v>
+      </c>
+      <c r="E636" t="n">
+        <v>369.77</v>
+      </c>
+      <c r="F636" t="n">
+        <v>354.5177777777778</v>
+      </c>
+      <c r="G636" t="n">
+        <v>339.3085714285714</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>335.9557894736842</v>
+      </c>
+      <c r="C637" t="n">
+        <v>349.9133333333334</v>
+      </c>
+      <c r="D637" t="n">
+        <v>371.7930434782609</v>
+      </c>
+      <c r="E637" t="n">
+        <v>372.98</v>
+      </c>
+      <c r="F637" t="n">
+        <v>360.7844444444444</v>
+      </c>
+      <c r="G637" t="n">
+        <v>352.0928571428572</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>350.2405263157895</v>
+      </c>
+      <c r="C638" t="n">
+        <v>355.9566666666666</v>
+      </c>
+      <c r="D638" t="n">
+        <v>373.1139130434783</v>
+      </c>
+      <c r="E638" t="n">
+        <v>377.14</v>
+      </c>
+      <c r="F638" t="n">
+        <v>371.1822222222222</v>
+      </c>
+      <c r="G638" t="n">
+        <v>353.0757142857143</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>338.1378947368421</v>
+      </c>
+      <c r="C639" t="n">
+        <v>353.18</v>
+      </c>
+      <c r="D639" t="n">
+        <v>372.5086956521739</v>
+      </c>
+      <c r="E639" t="n">
+        <v>378.65</v>
+      </c>
+      <c r="F639" t="n">
+        <v>367.1733333333333</v>
+      </c>
+      <c r="G639" t="n">
+        <v>351.5257142857143</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>343.5705263157895</v>
+      </c>
+      <c r="C640" t="n">
+        <v>348.5366666666666</v>
+      </c>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>353.3478947368421</v>
+      </c>
+      <c r="C641" t="n">
+        <v>348.4666666666667</v>
+      </c>
+      <c r="D641" t="n">
+        <v>367.43</v>
+      </c>
+      <c r="E641" t="n">
+        <v>371.63</v>
+      </c>
+      <c r="F641" t="n">
+        <v>366.9188888888889</v>
+      </c>
+      <c r="G641" t="n">
+        <v>356.1785714285714</v>
+      </c>
+      <c r="H641" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18045,7 +18367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B672"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24773,6 +25095,116 @@
       </c>
       <c r="B672" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -24941,28 +25373,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3760939721423742</v>
+        <v>0.3466329671041507</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K2" t="n">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03227085000295615</v>
+        <v>0.02826452924802259</v>
       </c>
       <c r="M2" t="n">
-        <v>12.32067439070804</v>
+        <v>12.27586289589526</v>
       </c>
       <c r="N2" t="n">
-        <v>222.2476657351941</v>
+        <v>220.3686742447603</v>
       </c>
       <c r="O2" t="n">
-        <v>14.90797322694115</v>
+        <v>14.84481977811655</v>
       </c>
       <c r="P2" t="n">
-        <v>337.2635744608075</v>
+        <v>337.5630938212952</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25018,28 +25450,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2173150145864163</v>
+        <v>0.2043663759555303</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01263461515643771</v>
+        <v>0.01157577495569329</v>
       </c>
       <c r="M3" t="n">
-        <v>11.28843606754493</v>
+        <v>11.17693858811668</v>
       </c>
       <c r="N3" t="n">
-        <v>192.1083074206969</v>
+        <v>189.2141923700802</v>
       </c>
       <c r="O3" t="n">
-        <v>13.86031411695626</v>
+        <v>13.7555149801845</v>
       </c>
       <c r="P3" t="n">
-        <v>348.7196052846883</v>
+        <v>348.8511313038657</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25095,28 +25527,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01761310228363876</v>
+        <v>0.01594618512878455</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K4" t="n">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="L4" t="n">
-        <v>9.415072279284065e-05</v>
+        <v>7.909452985987997e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>10.5649723789843</v>
+        <v>10.50727023831842</v>
       </c>
       <c r="N4" t="n">
-        <v>172.9518665855441</v>
+        <v>171.6230023236624</v>
       </c>
       <c r="O4" t="n">
-        <v>13.15111655280813</v>
+        <v>13.10049626249565</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4390892008169</v>
+        <v>361.0995869404107</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25172,28 +25604,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1514789000634904</v>
+        <v>-0.1171390895387347</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K5" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008738732372084113</v>
+        <v>0.005343006753514956</v>
       </c>
       <c r="M5" t="n">
-        <v>9.442807015501417</v>
+        <v>9.428757092502579</v>
       </c>
       <c r="N5" t="n">
-        <v>137.4482797557368</v>
+        <v>137.1173265587139</v>
       </c>
       <c r="O5" t="n">
-        <v>11.72383383350928</v>
+        <v>11.70971078031878</v>
       </c>
       <c r="P5" t="n">
-        <v>368.8767401428512</v>
+        <v>368.5294071627835</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25249,28 +25681,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0567037976649649</v>
+        <v>-0.03199332422551646</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K6" t="n">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001192458774159744</v>
+        <v>0.0003880637328352865</v>
       </c>
       <c r="M6" t="n">
-        <v>9.455329043087119</v>
+        <v>9.427279725742272</v>
       </c>
       <c r="N6" t="n">
-        <v>145.0427829458546</v>
+        <v>144.308334629731</v>
       </c>
       <c r="O6" t="n">
-        <v>12.04337091290701</v>
+        <v>12.01284040640393</v>
       </c>
       <c r="P6" t="n">
-        <v>362.256564031141</v>
+        <v>362.0087143156177</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25326,28 +25758,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01258312963252167</v>
+        <v>0.03005844682774202</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K7" t="n">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="L7" t="n">
-        <v>5.421945283201612e-05</v>
+        <v>0.0003167640457980569</v>
       </c>
       <c r="M7" t="n">
-        <v>9.898379396024755</v>
+        <v>9.835905642255836</v>
       </c>
       <c r="N7" t="n">
-        <v>155.5112977149332</v>
+        <v>154.3242674068312</v>
       </c>
       <c r="O7" t="n">
-        <v>12.47041690221034</v>
+        <v>12.42273188178958</v>
       </c>
       <c r="P7" t="n">
-        <v>350.1948836404928</v>
+        <v>350.0178717245493</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25384,7 +25816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H630"/>
+  <dimension ref="A1:H641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49224,6 +49656,452 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-37.18105624599259,175.88515293365515</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-37.18175891412057,175.88532865850183</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-37.1824425229552,175.88562155255786</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-37.18310686055484,175.88589234333364</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-37.18378980314975,175.88613533113644</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-37.18448283926092,175.88638778504367</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-37.181062821016475,175.88509684034094</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-37.181742207460225,175.8854711860182</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-37.18242581672815,175.88572161438842</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-37.18307010778124,175.88602903309425</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-37.18372453258907,175.88632550200109</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-37.184414063896256,175.88657581389126</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-37.181080696236414,175.88494434079826</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-37.18176271324115,175.88529624731106</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-37.1824415022659,175.88562766598497</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-37.1831187671584,175.88584806051583</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-37.18378112751604,175.88616060834025</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-37.1844830532473,175.88638720001248</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-37.181074840688865,175.88499429664472</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-37.181765937917376,175.88526873677841</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-37.182440726349846,175.88563231333933</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-37.18311021735794,175.8858798587817</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-37.18377997944406,175.88616395334492</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-37.18448105782423,175.88639265542824</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-37.18107851054339,175.88496298777744</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-37.181765254686894,175.88527456559595</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-37.18244650971987,175.88559767377805</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-37.18310462268539,175.88590066636763</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-37.183804700451425,175.88609192651947</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-37.18450076596012,175.88633877404314</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-37.181082205125605,175.88493146787508</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-37.181776151526435,175.88518160151037</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-37.18244299810357,175.88561870665205</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-37.183120373831386,175.8858420850019</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-37.18383671223935,175.88599865710967</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-37.18455118101987,175.88620094052928</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-37.18107084444781,175.8850283899513</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-37.18176267842679,175.88529654432085</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-37.182437623483736,175.88565089796458</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-37.18311116414833,175.8858763374976</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-37.183814461016354,175.8860634882093</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-37.18450330704542,175.88633182679402</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-37.18105219542402,175.88518749003853</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-37.18175478860517,175.88536385415486</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-37.18243519334326,175.88566545328473</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-37.183099228843915,175.88592072701147</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-37.1837775412703,175.88617105716898</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-37.184499626483834,175.88634188933574</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-37.18106799567722,175.8850526937398</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-37.18175841366302,175.88533292801694</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-37.18243630682456,175.88565878409273</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-37.18309489655395,175.88593683954764</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-37.18379177578061,175.88612958370408</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-37.18450543085747,175.88632602035594</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-37.18106090327525,175.88511320113636</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-37.18176447571678,175.8852812111903</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-37.18104813866143,175.88522209917542</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-37.18176456710435,175.88528043153957</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-37.18244565061408,175.8856028194062</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-37.183115037380695,175.8858619322435</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-37.183792679245464,175.88612695137996</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-37.18448800703116,175.8863736565393</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -25218,7 +25218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25309,35 +25309,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25396,27 +25401,28 @@
       <c r="P2" t="n">
         <v>337.5630938212952</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.88128656566568 -37.18150938103117, 175.89152314184838 -37.18030937768519)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8812865656657</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.18150938103117</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8915231418484</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.18030937768519</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.886404853757</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.18090937935818</v>
       </c>
     </row>
@@ -25473,27 +25479,28 @@
       <c r="P3" t="n">
         <v>348.8511313038657</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.88139922852073 -37.18221944044652, 175.8916358650587 -37.18101943160601)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8813992285207</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.18221944044652</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8916358650587</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.18101943160601</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8865175467897</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.18161943602627</v>
       </c>
     </row>
@@ -25550,27 +25557,28 @@
       <c r="P4" t="n">
         <v>361.0995869404107</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.88155388344487 -37.18312157997791, 175.8916813995249 -37.18143061247413)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8815538834449</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.18312157997791</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8916813995249</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.18143061247413</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8866176414849</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.18227609622602</v>
       </c>
     </row>
@@ -25627,27 +25635,28 @@
       <c r="P5" t="n">
         <v>368.5294071627835</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.88189637259615 -37.18418120210419, 175.8917023016993 -37.18154452644288)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.8818963725961</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.18418120210419</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8917023016993</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.18154452644288</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8867993371477</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.18286286427353</v>
       </c>
     </row>
@@ -25704,27 +25713,28 @@
       <c r="P6" t="n">
         <v>362.0087143156177</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.88233096788932 -37.185095452760585, 175.89183727508453 -37.18183260003108)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8823309678893</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.18509545276059</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.8918372750845</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.18183260003108</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8870841214869</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.18346402639583</v>
       </c>
     </row>
@@ -25781,27 +25791,28 @@
       <c r="P7" t="n">
         <v>350.0178717245493</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.88272701627392 -37.185821756848014, 175.8921344158303 -37.1823807046836)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8827270162739</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.18582175684801</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8921344158303</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.1823807046836</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8874307160521</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.1841012307658</v>
       </c>
     </row>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H641"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18353,6 +18353,246 @@
       <c r="H641" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>345.3326315789473</v>
+      </c>
+      <c r="C642" t="n">
+        <v>353.8466666666666</v>
+      </c>
+      <c r="D642" t="n">
+        <v>375.6782608695652</v>
+      </c>
+      <c r="E642" t="n">
+        <v>384.72</v>
+      </c>
+      <c r="F642" t="n">
+        <v>387.0355555555556</v>
+      </c>
+      <c r="G642" t="n">
+        <v>377.6757142857143</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>350.7489473684211</v>
+      </c>
+      <c r="C643" t="n">
+        <v>351.0533333333333</v>
+      </c>
+      <c r="D643" t="n">
+        <v>363.98</v>
+      </c>
+      <c r="E643" t="n">
+        <v>373.94</v>
+      </c>
+      <c r="F643" t="n">
+        <v>364.6644444444445</v>
+      </c>
+      <c r="G643" t="n">
+        <v>344.6642857142857</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>361.0252631578948</v>
+      </c>
+      <c r="C644" t="n">
+        <v>362.9733333333334</v>
+      </c>
+      <c r="D644" t="n">
+        <v>375.1534782608696</v>
+      </c>
+      <c r="E644" t="n">
+        <v>382.29</v>
+      </c>
+      <c r="F644" t="n">
+        <v>376.9344444444445</v>
+      </c>
+      <c r="G644" t="n">
+        <v>364.5957142857143</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>360.5010526315789</v>
+      </c>
+      <c r="C645" t="n">
+        <v>356.3200000000001</v>
+      </c>
+      <c r="D645" t="n">
+        <v>374.8421739130435</v>
+      </c>
+      <c r="E645" t="n">
+        <v>379.75</v>
+      </c>
+      <c r="F645" t="n">
+        <v>378.6466666666667</v>
+      </c>
+      <c r="G645" t="n">
+        <v>357.87</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>345.2731578947368</v>
+      </c>
+      <c r="C646" t="n">
+        <v>359.5733333333333</v>
+      </c>
+      <c r="D646" t="n">
+        <v>366.0656521739131</v>
+      </c>
+      <c r="E646" t="n">
+        <v>378.5100000000001</v>
+      </c>
+      <c r="F646" t="n">
+        <v>364.7844444444444</v>
+      </c>
+      <c r="G646" t="n">
+        <v>354.0685714285714</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>349.9778947368421</v>
+      </c>
+      <c r="C647" t="n">
+        <v>347.7833333333334</v>
+      </c>
+      <c r="D647" t="n">
+        <v>367.3043478260869</v>
+      </c>
+      <c r="E647" t="n">
+        <v>374.71</v>
+      </c>
+      <c r="F647" t="n">
+        <v>369.2311111111111</v>
+      </c>
+      <c r="G647" t="n">
+        <v>353.3971428571429</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>334.6384210526315</v>
+      </c>
+      <c r="C648" t="n">
+        <v>345.89</v>
+      </c>
+      <c r="D648" t="n">
+        <v>358.5882608695652</v>
+      </c>
+      <c r="E648" t="n">
+        <v>366.48</v>
+      </c>
+      <c r="F648" t="n">
+        <v>363.9533333333333</v>
+      </c>
+      <c r="G648" t="n">
+        <v>349.6128571428572</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>332.0526315789473</v>
+      </c>
+      <c r="C649" t="n">
+        <v>342.87</v>
+      </c>
+      <c r="D649" t="n">
+        <v>361.8673913043478</v>
+      </c>
+      <c r="E649" t="n">
+        <v>361.13</v>
+      </c>
+      <c r="F649" t="n">
+        <v>360.67</v>
+      </c>
+      <c r="G649" t="n">
+        <v>348.6942857142857</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18367,7 +18607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B683"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25205,6 +25445,86 @@
       </c>
       <c r="B683" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -25378,28 +25698,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3466329671041507</v>
+        <v>0.3491930516250621</v>
       </c>
       <c r="J2" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K2" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02826452924802259</v>
+        <v>0.02926057092918555</v>
       </c>
       <c r="M2" t="n">
-        <v>12.27586289589526</v>
+        <v>12.21393549358996</v>
       </c>
       <c r="N2" t="n">
-        <v>220.3686742447603</v>
+        <v>218.5822070395016</v>
       </c>
       <c r="O2" t="n">
-        <v>14.84481977811655</v>
+        <v>14.78452593218672</v>
       </c>
       <c r="P2" t="n">
-        <v>337.5630938212952</v>
+        <v>337.5370672773965</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25456,28 +25776,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2043663759555303</v>
+        <v>0.2000897726569673</v>
       </c>
       <c r="J3" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K3" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01157577495569329</v>
+        <v>0.01137597070181839</v>
       </c>
       <c r="M3" t="n">
-        <v>11.17693858811668</v>
+        <v>11.09753917821974</v>
       </c>
       <c r="N3" t="n">
-        <v>189.2141923700802</v>
+        <v>187.1246670258491</v>
       </c>
       <c r="O3" t="n">
-        <v>13.7555149801845</v>
+        <v>13.67935184962537</v>
       </c>
       <c r="P3" t="n">
-        <v>348.8511313038657</v>
+        <v>348.895290340935</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25534,28 +25854,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01594618512878455</v>
+        <v>0.03322269850232141</v>
       </c>
       <c r="J4" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K4" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="L4" t="n">
-        <v>7.909452985987997e-05</v>
+        <v>0.0003506222894502642</v>
       </c>
       <c r="M4" t="n">
-        <v>10.50727023831842</v>
+        <v>10.43590627835621</v>
       </c>
       <c r="N4" t="n">
-        <v>171.6230023236624</v>
+        <v>170.2591591755034</v>
       </c>
       <c r="O4" t="n">
-        <v>13.10049626249565</v>
+        <v>13.04833932634737</v>
       </c>
       <c r="P4" t="n">
-        <v>361.0995869404107</v>
+        <v>360.9227289858733</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25612,28 +25932,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1171390895387347</v>
+        <v>-0.09122997501886568</v>
       </c>
       <c r="J5" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K5" t="n">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005343006753514956</v>
+        <v>0.003286864262772249</v>
       </c>
       <c r="M5" t="n">
-        <v>9.428757092502579</v>
+        <v>9.42700261863552</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1173265587139</v>
+        <v>137.2420540887508</v>
       </c>
       <c r="O5" t="n">
-        <v>11.70971078031878</v>
+        <v>11.71503538572337</v>
       </c>
       <c r="P5" t="n">
-        <v>368.5294071627835</v>
+        <v>368.2641277673831</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25690,28 +26010,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03199332422551646</v>
+        <v>-0.005721749657507739</v>
       </c>
       <c r="J6" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K6" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003880637328352865</v>
+        <v>1.255348120310362e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.427279725742272</v>
+        <v>9.424535308636434</v>
       </c>
       <c r="N6" t="n">
-        <v>144.308334629731</v>
+        <v>144.5639941565879</v>
       </c>
       <c r="O6" t="n">
-        <v>12.01284040640393</v>
+        <v>12.02347679153529</v>
       </c>
       <c r="P6" t="n">
-        <v>362.0087143156177</v>
+        <v>361.7417542685428</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25768,28 +26088,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03005844682774202</v>
+        <v>0.04558071453885955</v>
       </c>
       <c r="J7" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003167640457980569</v>
+        <v>0.0007394798634517974</v>
       </c>
       <c r="M7" t="n">
-        <v>9.835905642255836</v>
+        <v>9.799879428088717</v>
       </c>
       <c r="N7" t="n">
-        <v>154.3242674068312</v>
+        <v>153.8907785051458</v>
       </c>
       <c r="O7" t="n">
-        <v>12.42273188178958</v>
+        <v>12.40527220600765</v>
       </c>
       <c r="P7" t="n">
-        <v>350.0178717245493</v>
+        <v>349.8585977795471</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25827,7 +26147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H641"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50113,6 +50433,342 @@
         </is>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-37.18105860280739,175.8851328270552</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-37.18175754330172,175.88534035326046</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-37.18243047544207,175.8856937111087</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-37.18307748130074,175.8860016097891</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-37.18372125011602,175.88633506571054</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-37.18440750518527,175.8865937450617</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-37.18105153166579,175.88519315271267</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-37.18176119011252,175.8853092414888</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-37.18245199791286,175.8855648021225</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-37.18310840984874,175.8858865812329</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-37.18380068417827,175.88610362829561</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-37.18453112521703,175.88625577266637</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-37.18103811558412,175.88530760787614</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-37.181745628009296,175.88544200482394</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-37.18243144094052,175.88568792826845</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-37.18308445314426,175.88597568035527</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-37.18375711661745,175.88623056604493</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-37.18445648681746,175.88645983160913</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-37.18103879996153,175.88530176934503</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-37.18175431425726,175.88536790091214</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-37.18243201368017,175.88568449785117</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-37.1830917405798,175.88594857715555</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-37.183751036953794,175.88624827961343</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-37.18448167303512,175.88639097346362</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-37.18105868045166,175.88513216465114</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-37.18175006687919,175.88540413609397</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-37.182448160738204,175.88558778497273</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-37.18309529822331,175.88593534567022</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-37.18380025809028,175.88610486974133</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-37.184495908473856,175.88635205425695</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-37.18105253829696,175.88518456490976</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-37.18176545922088,175.88527282066332</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-37.18244588178874,175.88560143478185</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-37.183106200670316,175.88589479756166</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-37.183784469154546,175.886150872192</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-37.18449842281163,175.88634518013768</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-37.18107256428932,175.88501371740256</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-37.181767931033946,175.88525173296603</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-37.18246191759307,175.88550538782522</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-37.1831298130293,175.8858069788522</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-37.183803209143846,175.8860962715799</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-37.184512594040214,175.8863064364225</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-37.1810759400657,175.88498491746748</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-37.18177187374218,175.88521809660045</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-37.18245588467759,175.8855415222221</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-37.183145162463404,175.88574989132437</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-37.18381486737764,175.88606230423747</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-37.1845160338647,175.88629703203787</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H649"/>
+  <dimension ref="A1:H652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18593,6 +18593,94 @@
       <c r="H649" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>357.9631578947368</v>
+      </c>
+      <c r="C650" t="n">
+        <v>367.92</v>
+      </c>
+      <c r="D650" t="n">
+        <v>372.5769565217391</v>
+      </c>
+      <c r="E650" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="F650" t="n">
+        <v>366.07</v>
+      </c>
+      <c r="G650" t="n">
+        <v>348.4114285714285</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>344.9884210526316</v>
+      </c>
+      <c r="C651" t="n">
+        <v>348.0266666666666</v>
+      </c>
+      <c r="D651" t="n">
+        <v>363.5826086956522</v>
+      </c>
+      <c r="E651" t="n">
+        <v>371.57</v>
+      </c>
+      <c r="F651" t="n">
+        <v>365.0755555555555</v>
+      </c>
+      <c r="G651" t="n">
+        <v>349.9714285714285</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="n">
+        <v>361.1866666666667</v>
+      </c>
+      <c r="D652" t="n">
+        <v>370.6469565217391</v>
+      </c>
+      <c r="E652" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="F652" t="n">
+        <v>365.4922222222222</v>
+      </c>
+      <c r="G652" t="n">
+        <v>359.8642857142857</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18607,7 +18695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25525,6 +25613,36 @@
       </c>
       <c r="B691" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -25698,28 +25816,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3491930516250621</v>
+        <v>0.3525206750595226</v>
       </c>
       <c r="J2" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K2" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02926057092918555</v>
+        <v>0.02996977721603566</v>
       </c>
       <c r="M2" t="n">
-        <v>12.21393549358996</v>
+        <v>12.19195616589346</v>
       </c>
       <c r="N2" t="n">
-        <v>218.5822070395016</v>
+        <v>218.0238120696899</v>
       </c>
       <c r="O2" t="n">
-        <v>14.78452593218672</v>
+        <v>14.76562941664493</v>
       </c>
       <c r="P2" t="n">
-        <v>337.5370672773965</v>
+        <v>337.5025312492699</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25776,28 +25894,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2000897726569673</v>
+        <v>0.2051275628293988</v>
       </c>
       <c r="J3" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K3" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01137597070181839</v>
+        <v>0.01204047254956642</v>
       </c>
       <c r="M3" t="n">
-        <v>11.09753917821974</v>
+        <v>11.08658923107441</v>
       </c>
       <c r="N3" t="n">
-        <v>187.1246670258491</v>
+        <v>186.6162216480021</v>
       </c>
       <c r="O3" t="n">
-        <v>13.67935184962537</v>
+        <v>13.66075479788734</v>
       </c>
       <c r="P3" t="n">
-        <v>348.895290340935</v>
+        <v>348.843242191838</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25854,28 +25972,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03322269850232141</v>
+        <v>0.04042953878160875</v>
       </c>
       <c r="J4" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K4" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003506222894502642</v>
+        <v>0.0005234428471079244</v>
       </c>
       <c r="M4" t="n">
-        <v>10.43590627835621</v>
+        <v>10.40889918432847</v>
       </c>
       <c r="N4" t="n">
-        <v>170.2591591755034</v>
+        <v>169.6920560170648</v>
       </c>
       <c r="O4" t="n">
-        <v>13.04833932634737</v>
+        <v>13.02659034502371</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9227289858733</v>
+        <v>360.8483854721489</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25932,28 +26050,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09122997501886568</v>
+        <v>-0.08499126323812774</v>
       </c>
       <c r="J5" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K5" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003286864262772249</v>
+        <v>0.002878756191537213</v>
       </c>
       <c r="M5" t="n">
-        <v>9.42700261863552</v>
+        <v>9.404401574907338</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2420540887508</v>
+        <v>136.7044360298134</v>
       </c>
       <c r="O5" t="n">
-        <v>11.71503538572337</v>
+        <v>11.69206722653498</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2641277673831</v>
+        <v>368.1997445541124</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26010,28 +26128,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005721749657507739</v>
+        <v>-0.00165049904752698</v>
       </c>
       <c r="J6" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K6" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L6" t="n">
-        <v>1.255348120310362e-05</v>
+        <v>1.054868352889926e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>9.424535308636434</v>
+        <v>9.391765100237485</v>
       </c>
       <c r="N6" t="n">
-        <v>144.5639941565879</v>
+        <v>143.8238554172513</v>
       </c>
       <c r="O6" t="n">
-        <v>12.02347679153529</v>
+        <v>11.99265839658795</v>
       </c>
       <c r="P6" t="n">
-        <v>361.7417542685428</v>
+        <v>361.7000414020941</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26088,28 +26206,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04558071453885955</v>
+        <v>0.04738915151695017</v>
       </c>
       <c r="J7" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K7" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007394798634517974</v>
+        <v>0.0008068505996141617</v>
       </c>
       <c r="M7" t="n">
-        <v>9.799879428088717</v>
+        <v>9.766439325227219</v>
       </c>
       <c r="N7" t="n">
-        <v>153.8907785051458</v>
+        <v>153.1566775838215</v>
       </c>
       <c r="O7" t="n">
-        <v>12.40527220600765</v>
+        <v>12.37564857224952</v>
       </c>
       <c r="P7" t="n">
-        <v>349.8585977795471</v>
+        <v>349.8398470034727</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26147,7 +26265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H649"/>
+  <dimension ref="A1:H652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50769,6 +50887,128 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-37.18104211327865,175.88527350288032</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-37.18173916986746,175.88549710010415</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-37.18243618123796,175.88565953629328</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-37.183114836546466,175.88586267918262</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-37.18379569342471,175.88611816930248</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-37.184517093095145,175.88629413613074</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-37.18105905218218,175.88512899331846</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-37.181765141540424,175.8852755308778</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-37.182452729031326,175.88556042306755</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-37.18311520952432,175.88586129200993</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-37.18379922443235,175.88610788139664</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-37.18451125127803,175.88631010749623</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-37.1817479605934,175.88542210517826</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-37.182439732057134,175.88563826866027</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-37.18311081986093,175.88587761796455</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-37.18379774495998,175.88611219197185</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-37.18447420490829,175.8864113910496</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H652"/>
+  <dimension ref="A1:H654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18679,6 +18679,64 @@
         <v>359.8642857142857</v>
       </c>
       <c r="H652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>345.5768421052632</v>
+      </c>
+      <c r="C653" t="n">
+        <v>373.8833333333334</v>
+      </c>
+      <c r="D653" t="n">
+        <v>377.3152173913044</v>
+      </c>
+      <c r="E653" t="n">
+        <v>386.72</v>
+      </c>
+      <c r="F653" t="n">
+        <v>387.7711111111111</v>
+      </c>
+      <c r="G653" t="n">
+        <v>386.7428571428572</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>310.6831578947368</v>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="n">
+        <v>359.0047826086956</v>
+      </c>
+      <c r="E654" t="n">
+        <v>364.73</v>
+      </c>
+      <c r="F654" t="n">
+        <v>360.1688888888889</v>
+      </c>
+      <c r="G654" t="n">
+        <v>357.0771428571429</v>
+      </c>
+      <c r="H654" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18695,7 +18753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25643,6 +25701,26 @@
       </c>
       <c r="B694" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -25816,28 +25894,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3525206750595226</v>
+        <v>0.3400425841189524</v>
       </c>
       <c r="J2" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02996977721603566</v>
+        <v>0.02783738931107416</v>
       </c>
       <c r="M2" t="n">
-        <v>12.19195616589346</v>
+        <v>12.21847310590236</v>
       </c>
       <c r="N2" t="n">
-        <v>218.0238120696899</v>
+        <v>219.5749265519398</v>
       </c>
       <c r="O2" t="n">
-        <v>14.76562941664493</v>
+        <v>14.81806082292618</v>
       </c>
       <c r="P2" t="n">
-        <v>337.5025312492699</v>
+        <v>337.6326440532933</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25894,28 +25972,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2051275628293988</v>
+        <v>0.211785085415069</v>
       </c>
       <c r="J3" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K3" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01204047254956642</v>
+        <v>0.01282112341468589</v>
       </c>
       <c r="M3" t="n">
-        <v>11.08658923107441</v>
+        <v>11.10235499828829</v>
       </c>
       <c r="N3" t="n">
-        <v>186.6162216480021</v>
+        <v>186.9759993982597</v>
       </c>
       <c r="O3" t="n">
-        <v>13.66075479788734</v>
+        <v>13.67391675410742</v>
       </c>
       <c r="P3" t="n">
-        <v>348.843242191838</v>
+        <v>348.7742320005245</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25972,28 +26050,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04042953878160875</v>
+        <v>0.0446142948618176</v>
       </c>
       <c r="J4" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K4" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005234428471079244</v>
+        <v>0.0006400463171475357</v>
       </c>
       <c r="M4" t="n">
-        <v>10.40889918432847</v>
+        <v>10.39926288955766</v>
       </c>
       <c r="N4" t="n">
-        <v>169.6920560170648</v>
+        <v>169.5232239057032</v>
       </c>
       <c r="O4" t="n">
-        <v>13.02659034502371</v>
+        <v>13.02010844446786</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8483854721489</v>
+        <v>360.8051024584569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26050,28 +26128,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08499126323812774</v>
+        <v>-0.07851753842104991</v>
       </c>
       <c r="J5" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K5" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002878756191537213</v>
+        <v>0.002460646197770866</v>
       </c>
       <c r="M5" t="n">
-        <v>9.404401574907338</v>
+        <v>9.404950063374599</v>
       </c>
       <c r="N5" t="n">
-        <v>136.7044360298134</v>
+        <v>136.9856731111777</v>
       </c>
       <c r="O5" t="n">
-        <v>11.69206722653498</v>
+        <v>11.70408788035948</v>
       </c>
       <c r="P5" t="n">
-        <v>368.1997445541124</v>
+        <v>368.1327594271316</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26128,28 +26206,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00165049904752698</v>
+        <v>0.006759764620478718</v>
       </c>
       <c r="J6" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K6" t="n">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L6" t="n">
-        <v>1.054868352889926e-06</v>
+        <v>1.76566990146565e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.391765100237485</v>
+        <v>9.405810394997797</v>
       </c>
       <c r="N6" t="n">
-        <v>143.8238554172513</v>
+        <v>144.5729353805017</v>
       </c>
       <c r="O6" t="n">
-        <v>11.99265839658795</v>
+        <v>12.02384860934725</v>
       </c>
       <c r="P6" t="n">
-        <v>361.7000414020941</v>
+        <v>361.6136271064038</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26206,28 +26284,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04738915151695017</v>
+        <v>0.06194339280643246</v>
       </c>
       <c r="J7" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K7" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0008068505996141617</v>
+        <v>0.001364824205691506</v>
       </c>
       <c r="M7" t="n">
-        <v>9.766439325227219</v>
+        <v>9.805130863041738</v>
       </c>
       <c r="N7" t="n">
-        <v>153.1566775838215</v>
+        <v>155.0891068125504</v>
       </c>
       <c r="O7" t="n">
-        <v>12.37564857224952</v>
+        <v>12.45347769952435</v>
       </c>
       <c r="P7" t="n">
-        <v>349.8398470034727</v>
+        <v>349.6886705262629</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26265,7 +26343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H652"/>
+  <dimension ref="A1:H654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29533,7 +29611,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-37.18241891183675,175.8857629710281</t>
+          <t>-37.18241891183674,175.8857629710281</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -30153,7 +30231,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-37.18384038526599,175.88598795537644</t>
+          <t>-37.18384038526598,175.88598795537644</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -51009,6 +51087,86 @@
         </is>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-37.18105828398481,175.88513554701515</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-37.1817313843785,175.8855635188605</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-37.182427463757044,175.88571174954458</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-37.183071743153796,175.8860229508831</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-37.183718638340046,175.88634267529602</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-37.184373550707726,175.88668657464993</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-37.18110383788265,175.88474690901384</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-37.18246115128062,175.8855099776893</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-37.18313483387516,175.8857883053645</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-37.18381664668763,175.88605712004986</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-37.18448464209607,175.88638285615573</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H654"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18723,7 +18723,9 @@
       <c r="B654" t="n">
         <v>310.6831578947368</v>
       </c>
-      <c r="C654" t="inlineStr"/>
+      <c r="C654" t="n">
+        <v>331.2266666666666</v>
+      </c>
       <c r="D654" t="n">
         <v>359.0047826086956</v>
       </c>
@@ -18737,6 +18739,126 @@
         <v>357.0771428571429</v>
       </c>
       <c r="H654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>315.9452631578947</v>
+      </c>
+      <c r="C655" t="n">
+        <v>338.3933333333334</v>
+      </c>
+      <c r="D655" t="n">
+        <v>362.1404347826087</v>
+      </c>
+      <c r="E655" t="n">
+        <v>370.1</v>
+      </c>
+      <c r="F655" t="n">
+        <v>363.7977777777778</v>
+      </c>
+      <c r="G655" t="n">
+        <v>360.12</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>319.4847368421052</v>
+      </c>
+      <c r="C656" t="n">
+        <v>339.6466666666666</v>
+      </c>
+      <c r="D656" t="n">
+        <v>366.4995652173913</v>
+      </c>
+      <c r="E656" t="n">
+        <v>360.53</v>
+      </c>
+      <c r="F656" t="n">
+        <v>360.6722222222222</v>
+      </c>
+      <c r="G656" t="n">
+        <v>356.81</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>322.7084210526315</v>
+      </c>
+      <c r="C657" t="n">
+        <v>342.21</v>
+      </c>
+      <c r="D657" t="n">
+        <v>363.5647826086956</v>
+      </c>
+      <c r="E657" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="F657" t="n">
+        <v>364.2966666666667</v>
+      </c>
+      <c r="G657" t="n">
+        <v>362.1957142857143</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>336.7231578947368</v>
+      </c>
+      <c r="C658" t="n">
+        <v>358.7033333333333</v>
+      </c>
+      <c r="D658" t="n">
+        <v>370.3426086956522</v>
+      </c>
+      <c r="E658" t="n">
+        <v>370.84</v>
+      </c>
+      <c r="F658" t="n">
+        <v>367.0777777777778</v>
+      </c>
+      <c r="G658" t="n">
+        <v>352.0928571428572</v>
+      </c>
+      <c r="H658" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18753,7 +18875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B696"/>
+  <dimension ref="A1:B700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25721,6 +25843,46 @@
       </c>
       <c r="B696" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -25894,28 +26056,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3400425841189524</v>
+        <v>0.3099465567207279</v>
       </c>
       <c r="J2" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02783738931107416</v>
+        <v>0.02311798581574231</v>
       </c>
       <c r="M2" t="n">
-        <v>12.21847310590236</v>
+        <v>12.30511573926093</v>
       </c>
       <c r="N2" t="n">
-        <v>219.5749265519398</v>
+        <v>222.1001410569864</v>
       </c>
       <c r="O2" t="n">
-        <v>14.81806082292618</v>
+        <v>14.90302456070533</v>
       </c>
       <c r="P2" t="n">
-        <v>337.6326440532933</v>
+        <v>337.9467711507814</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25972,28 +26134,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.211785085415069</v>
+        <v>0.1916384886250427</v>
       </c>
       <c r="J3" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K3" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01282112341468589</v>
+        <v>0.01058641985621644</v>
       </c>
       <c r="M3" t="n">
-        <v>11.10235499828829</v>
+        <v>11.12602801694468</v>
       </c>
       <c r="N3" t="n">
-        <v>186.9759993982597</v>
+        <v>187.3430368294875</v>
       </c>
       <c r="O3" t="n">
-        <v>13.67391675410742</v>
+        <v>13.687331253005</v>
       </c>
       <c r="P3" t="n">
-        <v>348.7742320005245</v>
+        <v>348.9833440665777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26050,28 +26212,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0446142948618176</v>
+        <v>0.04945165901812289</v>
       </c>
       <c r="J4" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K4" t="n">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006400463171475357</v>
+        <v>0.0007961443572416238</v>
       </c>
       <c r="M4" t="n">
-        <v>10.39926288955766</v>
+        <v>10.34533485057116</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5232239057032</v>
+        <v>168.4790810940052</v>
       </c>
       <c r="O4" t="n">
-        <v>13.02010844446786</v>
+        <v>12.9799491945849</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8051024584569</v>
+        <v>360.7549210193727</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26128,28 +26290,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07851753842104991</v>
+        <v>-0.07677211115369396</v>
       </c>
       <c r="J5" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K5" t="n">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002460646197770866</v>
+        <v>0.002381967559999643</v>
       </c>
       <c r="M5" t="n">
-        <v>9.404950063374599</v>
+        <v>9.365503934076209</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9856731111777</v>
+        <v>136.1347775587459</v>
       </c>
       <c r="O5" t="n">
-        <v>11.70408788035948</v>
+        <v>11.66768089890814</v>
       </c>
       <c r="P5" t="n">
-        <v>368.1327594271316</v>
+        <v>368.1146535913718</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26206,28 +26368,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006759764620478718</v>
+        <v>0.009680242829757796</v>
       </c>
       <c r="J6" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K6" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L6" t="n">
-        <v>1.76566990146565e-05</v>
+        <v>3.668560751324268e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.405810394997797</v>
+        <v>9.354297493695787</v>
       </c>
       <c r="N6" t="n">
-        <v>144.5729353805017</v>
+        <v>143.5537606820645</v>
       </c>
       <c r="O6" t="n">
-        <v>12.02384860934725</v>
+        <v>11.98139226809908</v>
       </c>
       <c r="P6" t="n">
-        <v>361.6136271064038</v>
+        <v>361.5835353256396</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26284,28 +26446,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06194339280643246</v>
+        <v>0.07087259125904984</v>
       </c>
       <c r="J7" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K7" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001364824205691506</v>
+        <v>0.001805527658976125</v>
       </c>
       <c r="M7" t="n">
-        <v>9.805130863041738</v>
+        <v>9.776017766509726</v>
       </c>
       <c r="N7" t="n">
-        <v>155.0891068125504</v>
+        <v>154.3243972634549</v>
       </c>
       <c r="O7" t="n">
-        <v>12.45347769952435</v>
+        <v>12.42273710836122</v>
       </c>
       <c r="P7" t="n">
-        <v>349.6886705262629</v>
+        <v>349.5957544215366</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26343,7 +26505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H654"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51140,7 +51302,11 @@
           <t>-37.18110383788265,175.88474690901384</t>
         </is>
       </c>
-      <c r="C654" t="inlineStr"/>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-37.18178707440442,175.88508841463582</t>
+        </is>
+      </c>
       <c r="D654" t="inlineStr">
         <is>
           <t>-37.18246115128062,175.8855099776893</t>
@@ -51162,6 +51328,174 @@
         </is>
       </c>
       <c r="H654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-37.181096968255616,175.88480551719317</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-37.1817777181588,175.88516823606417</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-37.18245538233408,175.885544531026</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-37.18311942704198,175.88584560628692</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-37.183803761480014,175.88609466229826</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-37.18447324731872,175.88641400906354</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-37.181092347491195,175.88484493907112</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-37.1817760818983,175.8851821955302</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-37.18244736242614,175.88559256647846</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-37.18314688389362,175.88574348898322</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-37.183814859487136,175.8860623272272</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-37.18448564248225,175.88638012113472</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-37.18108813897704,175.88488084375052</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-37.18177273539239,175.8852107456061</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-37.18245276182767,175.88556022663292</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-37.183124734799456,175.8858258657485</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-37.18380199005896,175.88609982349428</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-37.1844654742572,175.8864352603138</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-37.181069842637584,175.8850369367252</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-37.18175120270574,175.88539444615338</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-37.182440291996755,175.8856349148995</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-37.1831173039381,175.88585350250145</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-37.183792115073096,175.8861285951457</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-37.18450330704542,175.88633182679402</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H658"/>
+  <dimension ref="A1:H660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18859,6 +18859,66 @@
         <v>352.0928571428572</v>
       </c>
       <c r="H658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>332.6531578947368</v>
+      </c>
+      <c r="C659" t="n">
+        <v>351.3333333333333</v>
+      </c>
+      <c r="D659" t="n">
+        <v>361.535652173913</v>
+      </c>
+      <c r="E659" t="n">
+        <v>379.8</v>
+      </c>
+      <c r="F659" t="n">
+        <v>364.0444444444445</v>
+      </c>
+      <c r="G659" t="n">
+        <v>347.4585714285714</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>343.3763157894737</v>
+      </c>
+      <c r="C660" t="n">
+        <v>345.6466666666667</v>
+      </c>
+      <c r="D660" t="n">
+        <v>361.4047826086957</v>
+      </c>
+      <c r="E660" t="n">
+        <v>369.16</v>
+      </c>
+      <c r="F660" t="n">
+        <v>351.0055555555556</v>
+      </c>
+      <c r="G660" t="n">
+        <v>336.9342857142857</v>
+      </c>
+      <c r="H660" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18875,7 +18935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B700"/>
+  <dimension ref="A1:B702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25883,6 +25943,26 @@
       </c>
       <c r="B700" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -26056,28 +26136,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3099465567207279</v>
+        <v>0.3046590004653164</v>
       </c>
       <c r="J2" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02311798581574231</v>
+        <v>0.02246754954070262</v>
       </c>
       <c r="M2" t="n">
-        <v>12.30511573926093</v>
+        <v>12.29128045022439</v>
       </c>
       <c r="N2" t="n">
-        <v>222.1001410569864</v>
+        <v>221.6302933139187</v>
       </c>
       <c r="O2" t="n">
-        <v>14.90302456070533</v>
+        <v>14.88725271209966</v>
       </c>
       <c r="P2" t="n">
-        <v>337.9467711507814</v>
+        <v>338.0022309761875</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26134,28 +26214,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1916384886250427</v>
+        <v>0.1880228620053903</v>
       </c>
       <c r="J3" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01058641985621644</v>
+        <v>0.010256112520177</v>
       </c>
       <c r="M3" t="n">
-        <v>11.12602801694468</v>
+        <v>11.10564254211188</v>
       </c>
       <c r="N3" t="n">
-        <v>187.3430368294875</v>
+        <v>186.8136601661876</v>
       </c>
       <c r="O3" t="n">
-        <v>13.687331253005</v>
+        <v>13.66797937393043</v>
       </c>
       <c r="P3" t="n">
-        <v>348.9833440665777</v>
+        <v>349.021098046177</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26212,28 +26292,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04945165901812289</v>
+        <v>0.04907662402968697</v>
       </c>
       <c r="J4" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007961443572416238</v>
+        <v>0.0007894123117488938</v>
       </c>
       <c r="M4" t="n">
-        <v>10.34533485057116</v>
+        <v>10.3110472156911</v>
       </c>
       <c r="N4" t="n">
-        <v>168.4790810940052</v>
+        <v>167.8817378752254</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9799491945849</v>
+        <v>12.95691853317082</v>
       </c>
       <c r="P4" t="n">
-        <v>360.7549210193727</v>
+        <v>360.7588288818566</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26290,28 +26370,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07677211115369396</v>
+        <v>-0.07130246130694141</v>
       </c>
       <c r="J5" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002381967559999643</v>
+        <v>0.002063753305499905</v>
       </c>
       <c r="M5" t="n">
-        <v>9.365503934076209</v>
+        <v>9.357056563914806</v>
       </c>
       <c r="N5" t="n">
-        <v>136.1347775587459</v>
+        <v>135.9965721853794</v>
       </c>
       <c r="O5" t="n">
-        <v>11.66768089890814</v>
+        <v>11.66175682242514</v>
       </c>
       <c r="P5" t="n">
-        <v>368.1146535913718</v>
+        <v>368.0576633805983</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26368,28 +26448,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009680242829757796</v>
+        <v>0.006783013677931981</v>
       </c>
       <c r="J6" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L6" t="n">
-        <v>3.668560751324268e-05</v>
+        <v>1.810626576004282e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.354297493695787</v>
+        <v>9.344654021135709</v>
       </c>
       <c r="N6" t="n">
-        <v>143.5537606820645</v>
+        <v>143.242400912074</v>
       </c>
       <c r="O6" t="n">
-        <v>11.98139226809908</v>
+        <v>11.96839174292327</v>
       </c>
       <c r="P6" t="n">
-        <v>361.5835353256396</v>
+        <v>361.6135579779751</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26446,28 +26526,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07087259125904984</v>
+        <v>0.06453271495886502</v>
       </c>
       <c r="J7" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001805527658976125</v>
+        <v>0.00150348990402549</v>
       </c>
       <c r="M7" t="n">
-        <v>9.776017766509726</v>
+        <v>9.776178239831532</v>
       </c>
       <c r="N7" t="n">
-        <v>154.3243972634549</v>
+        <v>154.1624364899373</v>
       </c>
       <c r="O7" t="n">
-        <v>12.42273710836122</v>
+        <v>12.41621667376731</v>
       </c>
       <c r="P7" t="n">
-        <v>349.5957544215366</v>
+        <v>349.6621182233843</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26505,7 +26585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H658"/>
+  <dimension ref="A1:H660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51501,6 +51581,90 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-37.181075156072666,175.8849916059933</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-37.18176082456145,175.88531236009138</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-37.182456495008815,175.88553786662112</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-37.1830915971264,175.88594911068316</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-37.183802885632645,175.88609721415915</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-37.18452066131025,175.88628438072587</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-37.18106115682125,175.8851110380646</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-37.18176824871388,175.88524902275128</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-37.18245673578166,175.8855364245033</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-37.18312212395698,175.88583557595967</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-37.18384918316702,175.8859623217897</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-37.184560072114905,175.88617663243423</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H660"/>
+  <dimension ref="A1:H664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18919,6 +18919,126 @@
         <v>336.9342857142857</v>
       </c>
       <c r="H660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>324.19</v>
+      </c>
+      <c r="C661" t="n">
+        <v>334.1266666666667</v>
+      </c>
+      <c r="D661" t="n">
+        <v>345.9278260869565</v>
+      </c>
+      <c r="E661" t="n">
+        <v>357.62</v>
+      </c>
+      <c r="F661" t="n">
+        <v>348.1088888888889</v>
+      </c>
+      <c r="G661" t="n">
+        <v>340.7157142857143</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>339.7905263157895</v>
+      </c>
+      <c r="C662" t="n">
+        <v>340.01</v>
+      </c>
+      <c r="D662" t="n">
+        <v>353.7660869565217</v>
+      </c>
+      <c r="E662" t="n">
+        <v>361.31</v>
+      </c>
+      <c r="F662" t="n">
+        <v>356.3633333333333</v>
+      </c>
+      <c r="G662" t="n">
+        <v>348.56</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>335.9547368421053</v>
+      </c>
+      <c r="C663" t="n">
+        <v>341.8866666666667</v>
+      </c>
+      <c r="D663" t="n">
+        <v>350.8195652173913</v>
+      </c>
+      <c r="E663" t="n">
+        <v>359.89</v>
+      </c>
+      <c r="F663" t="n">
+        <v>355.7422222222222</v>
+      </c>
+      <c r="G663" t="n">
+        <v>351.42</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>341.3552631578947</v>
+      </c>
+      <c r="C664" t="n">
+        <v>350.85</v>
+      </c>
+      <c r="D664" t="n">
+        <v>358.1282608695652</v>
+      </c>
+      <c r="E664" t="n">
+        <v>363.39</v>
+      </c>
+      <c r="F664" t="n">
+        <v>357.9966666666667</v>
+      </c>
+      <c r="G664" t="n">
+        <v>352.6257142857143</v>
+      </c>
+      <c r="H664" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18935,7 +19055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B702"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25963,6 +26083,56 @@
       </c>
       <c r="B702" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -26136,28 +26306,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3046590004653164</v>
+        <v>0.2908190739565195</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K2" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02246754954070262</v>
+        <v>0.02067954822601359</v>
       </c>
       <c r="M2" t="n">
-        <v>12.29128045022439</v>
+        <v>12.28322159196137</v>
       </c>
       <c r="N2" t="n">
-        <v>221.6302933139187</v>
+        <v>221.1571641518825</v>
       </c>
       <c r="O2" t="n">
-        <v>14.88725271209966</v>
+        <v>14.87135381032549</v>
       </c>
       <c r="P2" t="n">
-        <v>338.0022309761875</v>
+        <v>338.1477979022116</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26214,28 +26384,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1880228620053903</v>
+        <v>0.1721737774970327</v>
       </c>
       <c r="J3" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K3" t="n">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L3" t="n">
-        <v>0.010256112520177</v>
+        <v>0.0086703898470607</v>
       </c>
       <c r="M3" t="n">
-        <v>11.10564254211188</v>
+        <v>11.11089664191194</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8136601661876</v>
+        <v>186.7789039196253</v>
       </c>
       <c r="O3" t="n">
-        <v>13.66797937393043</v>
+        <v>13.66670786691606</v>
       </c>
       <c r="P3" t="n">
-        <v>349.021098046177</v>
+        <v>349.1869427251492</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26292,28 +26462,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04907662402968697</v>
+        <v>0.03630219808369513</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K4" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007894123117488938</v>
+        <v>0.0004357654131692534</v>
       </c>
       <c r="M4" t="n">
-        <v>10.3110472156911</v>
+        <v>10.32223106717802</v>
       </c>
       <c r="N4" t="n">
-        <v>167.8817378752254</v>
+        <v>167.5107860537392</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95691853317082</v>
+        <v>12.94259580044665</v>
       </c>
       <c r="P4" t="n">
-        <v>360.7588288818566</v>
+        <v>360.8922599597131</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26370,28 +26540,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07130246130694141</v>
+        <v>-0.07858148712294107</v>
       </c>
       <c r="J5" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K5" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002063753305499905</v>
+        <v>0.00253401213270299</v>
       </c>
       <c r="M5" t="n">
-        <v>9.357056563914806</v>
+        <v>9.336287730655984</v>
       </c>
       <c r="N5" t="n">
-        <v>135.9965721853794</v>
+        <v>135.2837247757397</v>
       </c>
       <c r="O5" t="n">
-        <v>11.66175682242514</v>
+        <v>11.63115320059622</v>
       </c>
       <c r="P5" t="n">
-        <v>368.0576633805983</v>
+        <v>368.1337296867113</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26448,28 +26618,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006783013677931981</v>
+        <v>-0.002774909190326796</v>
       </c>
       <c r="J6" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K6" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L6" t="n">
-        <v>1.810626576004282e-05</v>
+        <v>3.060716114888784e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>9.344654021135709</v>
+        <v>9.331457830620879</v>
       </c>
       <c r="N6" t="n">
-        <v>143.242400912074</v>
+        <v>142.6635161166993</v>
       </c>
       <c r="O6" t="n">
-        <v>11.96839174292327</v>
+        <v>11.94418335913759</v>
       </c>
       <c r="P6" t="n">
-        <v>361.6135579779751</v>
+        <v>361.7127693781219</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26526,28 +26696,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06453271495886502</v>
+        <v>0.06047425180307403</v>
       </c>
       <c r="J7" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K7" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00150348990402549</v>
+        <v>0.001336572910601408</v>
       </c>
       <c r="M7" t="n">
-        <v>9.776178239831532</v>
+        <v>9.731152450042408</v>
       </c>
       <c r="N7" t="n">
-        <v>154.1624364899373</v>
+        <v>153.2176223804913</v>
       </c>
       <c r="O7" t="n">
-        <v>12.41621667376731</v>
+        <v>12.37811061432605</v>
       </c>
       <c r="P7" t="n">
-        <v>349.6621182233843</v>
+        <v>349.7046604659568</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26585,7 +26755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H660"/>
+  <dimension ref="A1:H664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51665,6 +51835,174 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-37.181086204774694,175.88489734524654</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-37.181783288395145,175.8851207144724</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-37.18248521004888,175.88536587602997</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-37.18315523282535,175.8857124376244</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-37.183859468419485,175.88593235462454</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-37.18454591162617,175.8862153469486</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-37.18106583813906,175.88507110037025</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-37.181775607556524,175.88518624229016</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-37.18247078936682,175.88545224984003</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-37.18314464603428,175.88575181202663</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-37.183830159178804,175.88601775010255</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-37.1845165367317,175.88629565721328</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-37.18107084582203,175.8850283782273</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-37.1817731575138,175.88520714436132</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-37.18247621032826,175.88541978061258</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-37.18314872008546,175.88573665981903</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-37.18383236457398,175.88601132446595</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-37.18450582673172,175.88632493804755</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-37.181063795346354,175.88508852804821</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-37.181761455572186,175.8853069767893</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-37.182462763896176,175.88550031885202</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-37.183138678406635,175.88577400680643</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-37.18382435965858,175.8860346475708</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-37.184501311624786,175.88633728221282</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H664"/>
+  <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19039,6 +19039,96 @@
         <v>352.6257142857143</v>
       </c>
       <c r="H664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>323.5931578947368</v>
+      </c>
+      <c r="C665" t="n">
+        <v>340.03</v>
+      </c>
+      <c r="D665" t="n">
+        <v>334.37</v>
+      </c>
+      <c r="E665" t="n">
+        <v>341.56</v>
+      </c>
+      <c r="F665" t="n">
+        <v>339.4066666666667</v>
+      </c>
+      <c r="G665" t="n">
+        <v>327.2671428571429</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>352.108947368421</v>
+      </c>
+      <c r="C666" t="n">
+        <v>353.7966666666667</v>
+      </c>
+      <c r="D666" t="n">
+        <v>364.5156521739131</v>
+      </c>
+      <c r="E666" t="n">
+        <v>372.06</v>
+      </c>
+      <c r="F666" t="n">
+        <v>373.9622222222222</v>
+      </c>
+      <c r="G666" t="n">
+        <v>360.1657142857143</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="C667" t="n">
+        <v>345.21</v>
+      </c>
+      <c r="D667" t="n">
+        <v>355.9665217391304</v>
+      </c>
+      <c r="E667" t="n">
+        <v>357.31</v>
+      </c>
+      <c r="F667" t="n">
+        <v>358.5533333333333</v>
+      </c>
+      <c r="G667" t="n">
+        <v>350.5528571428572</v>
+      </c>
+      <c r="H667" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19055,7 +19145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B707"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26133,6 +26223,36 @@
       </c>
       <c r="B707" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -26306,28 +26426,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2908190739565195</v>
+        <v>0.2811551965087773</v>
       </c>
       <c r="J2" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K2" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02067954822601359</v>
+        <v>0.01943085305571335</v>
       </c>
       <c r="M2" t="n">
-        <v>12.28322159196137</v>
+        <v>12.29642688580335</v>
       </c>
       <c r="N2" t="n">
-        <v>221.1571641518825</v>
+        <v>221.2657100208558</v>
       </c>
       <c r="O2" t="n">
-        <v>14.87135381032549</v>
+        <v>14.87500285784362</v>
       </c>
       <c r="P2" t="n">
-        <v>338.1477979022116</v>
+        <v>338.2499127775367</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26384,28 +26504,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1721737774970327</v>
+        <v>0.1650702085288555</v>
       </c>
       <c r="J3" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K3" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0086703898470607</v>
+        <v>0.00803549508969692</v>
       </c>
       <c r="M3" t="n">
-        <v>11.11089664191194</v>
+        <v>11.09067228249144</v>
       </c>
       <c r="N3" t="n">
-        <v>186.7789039196253</v>
+        <v>186.2468288304377</v>
       </c>
       <c r="O3" t="n">
-        <v>13.66670786691606</v>
+        <v>13.64722788079827</v>
       </c>
       <c r="P3" t="n">
-        <v>349.1869427251492</v>
+        <v>349.2615955227538</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26462,28 +26582,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03630219808369513</v>
+        <v>0.0264710120630894</v>
       </c>
       <c r="J4" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K4" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004357654131692534</v>
+        <v>0.0002321246128397236</v>
       </c>
       <c r="M4" t="n">
-        <v>10.32223106717802</v>
+        <v>10.3425790530724</v>
       </c>
       <c r="N4" t="n">
-        <v>167.5107860537392</v>
+        <v>168.0178887399071</v>
       </c>
       <c r="O4" t="n">
-        <v>12.94259580044665</v>
+        <v>12.96217145157041</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8922599597131</v>
+        <v>360.9952960355524</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26540,28 +26660,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07858148712294107</v>
+        <v>-0.08731265680272077</v>
       </c>
       <c r="J5" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K5" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00253401213270299</v>
+        <v>0.003128256939610385</v>
       </c>
       <c r="M5" t="n">
-        <v>9.336287730655984</v>
+        <v>9.362698840318677</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2837247757397</v>
+        <v>135.8214102803644</v>
       </c>
       <c r="O5" t="n">
-        <v>11.63115320059622</v>
+        <v>11.65424430327271</v>
       </c>
       <c r="P5" t="n">
-        <v>368.1337296867113</v>
+        <v>368.225317687603</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26618,28 +26738,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.002774909190326796</v>
+        <v>-0.007022025838105241</v>
       </c>
       <c r="J6" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L6" t="n">
-        <v>3.060716114888784e-06</v>
+        <v>1.962781469411201e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.331457830620879</v>
+        <v>9.350444026567741</v>
       </c>
       <c r="N6" t="n">
-        <v>142.6635161166993</v>
+        <v>143.0851455817675</v>
       </c>
       <c r="O6" t="n">
-        <v>11.94418335913759</v>
+        <v>11.96182032893688</v>
       </c>
       <c r="P6" t="n">
-        <v>361.7127693781219</v>
+        <v>361.7569785110811</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26696,28 +26816,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06047425180307403</v>
+        <v>0.05518289300116173</v>
       </c>
       <c r="J7" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K7" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001336572910601408</v>
+        <v>0.001115350843334029</v>
       </c>
       <c r="M7" t="n">
-        <v>9.731152450042408</v>
+        <v>9.741261408897808</v>
       </c>
       <c r="N7" t="n">
-        <v>153.2176223804913</v>
+        <v>153.5880993357308</v>
       </c>
       <c r="O7" t="n">
-        <v>12.37811061432605</v>
+        <v>12.39306658320413</v>
       </c>
       <c r="P7" t="n">
-        <v>349.7046604659568</v>
+        <v>349.760305610644</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26755,7 +26875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H664"/>
+  <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52003,6 +52123,132 @@
         </is>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-37.18108698395273,175.88489069775235</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-37.181775581445955,175.8851864650476</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-37.18250647380314,175.88523851435886</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-37.183201309606,175.88554106813763</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-37.18389036753091,175.88584232663388</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-37.18459627305251,175.88607765952113</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-37.18104975614554,175.88520830007226</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-37.18175760857883,175.8853397963672</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-37.182451012422526,175.88557070474343</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-37.18311380368465,175.88586652058387</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-37.183767670213136,175.886199817306</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-37.18447307612952,175.88641447708835</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-37.18107640042956,175.8849809899369</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-37.18176881879689,175.88524415921518</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-37.18246674103801,175.885476497551</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-37.183156122229974,175.88570912974726</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-37.18382238308688,175.88604040650324</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-37.184509073970204,175.88631606019314</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H667"/>
+  <dimension ref="A1:H668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19131,6 +19131,36 @@
       <c r="H667" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="C668" t="n">
+        <v>346.3466666666666</v>
+      </c>
+      <c r="D668" t="n">
+        <v>362.9843478260869</v>
+      </c>
+      <c r="E668" t="n">
+        <v>368.48</v>
+      </c>
+      <c r="F668" t="n">
+        <v>360.3422222222222</v>
+      </c>
+      <c r="G668" t="n">
+        <v>354.9485714285714</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19145,7 +19175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26253,6 +26283,16 @@
       </c>
       <c r="B710" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -26875,7 +26915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H667"/>
+  <dimension ref="A1:H668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52249,6 +52289,48 @@
         </is>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-37.18106876318295,175.8850461459031</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-37.18176733483995,175.88525681925935</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-37.18245382970827,175.88555383052952</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-37.183124074916265,175.88582831997778</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-37.183816031227884,175.88605891325003</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-37.18449261308589,175.88636106374022</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -26466,28 +26466,28 @@
         <v>0.1192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2811551965087773</v>
+        <v>0.2785438890430831</v>
       </c>
       <c r="J2" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K2" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01943085305571335</v>
+        <v>0.01913020588508074</v>
       </c>
       <c r="M2" t="n">
-        <v>12.29642688580335</v>
+        <v>12.28993354928198</v>
       </c>
       <c r="N2" t="n">
-        <v>221.2657100208558</v>
+        <v>220.9871727632562</v>
       </c>
       <c r="O2" t="n">
-        <v>14.87500285784362</v>
+        <v>14.86563731439915</v>
       </c>
       <c r="P2" t="n">
-        <v>338.2499127775367</v>
+        <v>338.27757982156</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26544,28 +26544,28 @@
         <v>0.0922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1650702085288555</v>
+        <v>0.1627350389633557</v>
       </c>
       <c r="J3" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K3" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00803549508969692</v>
+        <v>0.00783346735408319</v>
       </c>
       <c r="M3" t="n">
-        <v>11.09067228249144</v>
+        <v>11.08375396642194</v>
       </c>
       <c r="N3" t="n">
-        <v>186.2468288304377</v>
+        <v>186.0127957991396</v>
       </c>
       <c r="O3" t="n">
-        <v>13.64722788079827</v>
+        <v>13.63865080567501</v>
       </c>
       <c r="P3" t="n">
-        <v>349.2615955227538</v>
+        <v>349.2862041213725</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26622,28 +26622,28 @@
         <v>0.159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0264710120630894</v>
+        <v>0.02688715324631676</v>
       </c>
       <c r="J4" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K4" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002321246128397236</v>
+        <v>0.0002402647652042234</v>
       </c>
       <c r="M4" t="n">
-        <v>10.3425790530724</v>
+        <v>10.32622965409245</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0178887399071</v>
+        <v>167.7265614387645</v>
       </c>
       <c r="O4" t="n">
-        <v>12.96217145157041</v>
+        <v>12.95092897975912</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9952960355524</v>
+        <v>360.9909183654648</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26700,28 +26700,28 @@
         <v>0.1196</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08731265680272077</v>
+        <v>-0.08649870868108173</v>
       </c>
       <c r="J5" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K5" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003128256939610385</v>
+        <v>0.003080138088903839</v>
       </c>
       <c r="M5" t="n">
-        <v>9.362698840318677</v>
+        <v>9.350039900075263</v>
       </c>
       <c r="N5" t="n">
-        <v>135.8214102803644</v>
+        <v>135.5932068360041</v>
       </c>
       <c r="O5" t="n">
-        <v>11.65424430327271</v>
+        <v>11.64444961498843</v>
       </c>
       <c r="P5" t="n">
-        <v>368.225317687603</v>
+        <v>368.2167507732624</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26778,28 +26778,28 @@
         <v>0.1014</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.007022025838105241</v>
+        <v>-0.00742562465282395</v>
       </c>
       <c r="J6" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K6" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L6" t="n">
-        <v>1.962781469411201e-05</v>
+        <v>2.202137279028182e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.350444026567741</v>
+        <v>9.335468806977955</v>
       </c>
       <c r="N6" t="n">
-        <v>143.0851455817675</v>
+        <v>142.8224774543908</v>
       </c>
       <c r="O6" t="n">
-        <v>11.96182032893688</v>
+        <v>11.95083584752091</v>
       </c>
       <c r="P6" t="n">
-        <v>361.7569785110811</v>
+        <v>361.7611997093728</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26856,28 +26856,28 @@
         <v>0.0808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05518289300116173</v>
+        <v>0.05643609282297735</v>
       </c>
       <c r="J7" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K7" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001115350843334029</v>
+        <v>0.001170235101275896</v>
       </c>
       <c r="M7" t="n">
-        <v>9.741261408897808</v>
+        <v>9.729464837516689</v>
       </c>
       <c r="N7" t="n">
-        <v>153.5880993357308</v>
+        <v>153.3236018703067</v>
       </c>
       <c r="O7" t="n">
-        <v>12.39306658320413</v>
+        <v>12.38239079783491</v>
       </c>
       <c r="P7" t="n">
-        <v>349.760305610644</v>
+        <v>349.7470581811004</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0195/nzd0195.xlsx
+++ b/data/nzd0195/nzd0195.xlsx
@@ -26460,10 +26460,10 @@
         <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0769</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1192</v>
+        <v>0.1247</v>
       </c>
       <c r="I2" t="n">
         <v>0.2785176606739072</v>
@@ -26535,13 +26535,13 @@
         <v>0.2002673561347875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0922</v>
+        <v>0.1053</v>
       </c>
       <c r="I3" t="n">
         <v>0.1627396491868029</v>
@@ -26616,10 +26616,10 @@
         <v>0.115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0898</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.159</v>
+        <v>0.1517</v>
       </c>
       <c r="I4" t="n">
         <v>0.02692236771238266</v>
@@ -26691,13 +26691,13 @@
         <v>0.5995043427786749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0854</v>
+        <v>0.09</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1196</v>
+        <v>0.1455</v>
       </c>
       <c r="I5" t="n">
         <v>-0.08649870868108171</v>
@@ -26769,13 +26769,13 @@
         <v>0.7997326438663771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0793</v>
+        <v>0.0901</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1014</v>
+        <v>0.1645</v>
       </c>
       <c r="I6" t="n">
         <v>-0.007424137198097393</v>
@@ -26847,13 +26847,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.1171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0808</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.05646545138246795</v>
